--- a/drogas_mj.xlsx
+++ b/drogas_mj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EFAB19-0BC4-4D59-A5B5-02D2576E84B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EB2708-EB0C-4FE8-9A0C-A974FF990C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>mes</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>drogas_kg</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -920,18 +923,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD22425-19F3-49A8-B9EE-53F8E1E513EC}">
-  <dimension ref="B2:C14"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -939,7 +943,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2023</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -947,7 +954,10 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -955,7 +965,10 @@
         <v>5612</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -963,7 +976,10 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2023</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -971,7 +987,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2023</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -979,7 +998,10 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2023</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,7 +1009,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2023</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -995,7 +1020,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2023</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1031,10 @@
         <v>612</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2023</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1042,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2023</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,7 +1053,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2023</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +1064,10 @@
         <v>935</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2023</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
